--- a/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_AHRQ.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_AHRQ.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -491,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -606,6 +625,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -651,26 +685,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1027,6 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,21 +1073,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -1064,7 +1102,7 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
@@ -1075,12 +1113,12 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1140,7 @@
         <v>1474046</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1151,7 @@
         <v>129453</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1162,7 @@
         <v>210843</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1173,7 @@
         <v>17873051</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1184,7 @@
         <v>10345074</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1195,7 @@
         <v>5187652</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1168,7 +1206,7 @@
         <v>5498816</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,7 +1217,7 @@
         <v>1320116</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1228,7 @@
         <v>2085752</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1239,7 @@
         <v>13813263</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1250,7 @@
         <v>3869751</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1261,7 @@
         <v>186685</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1234,7 +1272,7 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1283,7 @@
         <v>396465</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1256,7 +1294,7 @@
         <v>8875489</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1305,7 @@
         <v>19379574</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1316,7 @@
         <v>9013499</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1327,7 @@
         <v>1562379</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1338,7 @@
         <v>3229627</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1311,7 +1349,7 @@
         <v>99994</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1322,7 +1360,7 @@
         <v>4921689</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1371,7 @@
         <v>2575078</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1344,7 +1382,7 @@
         <v>185296</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1393,7 @@
         <v>13543241</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +1404,7 @@
         <v>13664166</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1377,7 +1415,7 @@
         <v>5420765</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1388,7 +1426,7 @@
         <v>5704820</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1399,7 +1437,7 @@
         <v>7422552</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1448,7 @@
         <v>8528411</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1421,7 +1459,7 @@
         <v>2716797</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1432,7 +1470,7 @@
         <v>2786897</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1443,7 +1481,7 @@
         <v>1289999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1454,7 +1492,7 @@
         <v>6594911</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +1503,7 @@
         <v>541951</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1476,7 +1514,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1487,7 +1525,7 @@
         <v>3774024</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1498,7 +1536,7 @@
         <v>11365296</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1509,7 +1547,7 @@
         <v>-7112</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
